--- a/Generar_Reporte/Reporte_Final.xlsx
+++ b/Generar_Reporte/Reporte_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documentos\UiPath\Prueba_RPA\Generar_Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930FAD88-2F0A-4328-BDFD-69C2C71740D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F81BE6-D9EE-46E8-AD8A-AA7B8F15C375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3900" yWindow="1590" windowWidth="15660" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1590" windowWidth="15660" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>URL_Amazon</t>
   </si>
@@ -39,118 +39,40 @@
     <t>Correo_Destino</t>
   </si>
   <si>
-    <t>Amazon.com</t>
+    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A05457672OQ9G9L2J8L29&amp;url=%2FHP-Zbook-Firefly-estaci%25C3%25B3n-trabajo%2Fdp%2FB09BRDGQLG%2Fref%3Dsr_1_1_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dintel%26qid%3D1634579865%26sr%3D8-1-spons%26psc%3D1&amp;qualifier=1634579865&amp;id=2295064300151882&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>Metziah's</t>
   </si>
   <si>
     <t>tatianaesponda@idico.com</t>
   </si>
   <si>
-    <t>MIFSPOT</t>
+    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A03727523OXF3R26P5W8U&amp;url=%2FHuawei-Freebuds-Cancellation-Earbuds-MermaidTWS%2Fdp%2FB08PB82178%2Fref%3Dsr_1_1_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhuawei%26qid%3D1634579899%26sr%3D8-1-spons%26psc%3D1%26smid%3DA1L2MI56ZO8BAJ&amp;qualifier=1634579899&amp;id=4626620498781154&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>Geek-Tech Mall</t>
+  </si>
+  <si>
+    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A08339391ZNOJLWNIXE8B&amp;url=%2FCargador-cargador-puertos-enchufe-Samsung%2Fdp%2FB09DGNQGMY%2Fref%3Dsr_1_9_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhtc%26qid%3D1634579930%26sr%3D8-9-spons%26psc%3D1&amp;qualifier=1634579930&amp;id=605350686321734&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>KATHY SHOP</t>
   </si>
   <si>
     <t>it@idico.com</t>
   </si>
   <si>
-    <t>Wuirsfol</t>
-  </si>
-  <si>
-    <t>Geek-Tech Mall</t>
-  </si>
-  <si>
-    <t>XUNMEJ</t>
-  </si>
-  <si>
-    <t>HTC-US</t>
-  </si>
-  <si>
-    <t>HtcDirect</t>
-  </si>
-  <si>
-    <t>Efuture Buy (same day ship arrive 2-3 days east)</t>
+    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A0933764UIJU1AXN2KP5&amp;url=%2FASUS-Vivobook-15-6-Display-Laptop%2Fdp%2FB09BCSH9DK%2Fref%3Dsr_1_1_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%26qid%3D1634579938%26sr%3D8-1-spons%26psc%3D1&amp;qualifier=1634579938&amp;id=1248390229183524&amp;widgetName=sp_atf</t>
   </si>
   <si>
     <t>RockyStone Electronics</t>
   </si>
   <si>
+    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A004526033APR83CNQ5LM&amp;url=%2Fnigaozhiqi-impresa-consumidor-cubierta-tel%25C3%25A9fono%2Fdp%2FB095K61492%2Fref%3Dsr_1_9_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dzte%26qid%3D1634579946%26sr%3D8-9-spons%26psc%3D1&amp;qualifier=1634579946&amp;id=2709439392182225&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
     <t>huiyinkeji</t>
-  </si>
-  <si>
-    <t>ChenRan2018</t>
-  </si>
-  <si>
-    <t>eKings</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A034204311PTGO7YFH6ZM&amp;url=%2Fpaquetes-auriculares-micr%25C3%25B3fono-compatible-Motorola%2Fdp%2FB09DYB7KMH%2Fref%3Dsr_1_10_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dmotorola%26qid%3D1634543538%26sr%3D8-10-spons%26psc%3D1&amp;qualifier=1634543538&amp;id=2763565954295147&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A03727523OXF3R26P5W8U&amp;url=%2FHuawei-Freebuds-Cancellation-Earbuds-MermaidTWS%2Fdp%2FB08PB82178%2Fref%3Dsr_1_10_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhuawei%26qid%3D1634543555%26sr%3D8-10-spons%26psc%3D1%26smid%3DA1L2MI56ZO8BAJ&amp;qualifier=1634543555&amp;id=99880845838441&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A00885683OQM7IQEP60C4&amp;url=%2FCargador-inal%25C3%25A1mbrico-estaci%25C3%25B3n-inal%25C3%25A1mbrica-aleaci%25C3%25B3n%2Fdp%2FB08K2Y3H46%2Fref%3Dsr_1_15_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhuawei%26qid%3D1634543555%26sr%3D8-15-spons%26psc%3D1&amp;qualifier=1634543555&amp;id=99880845838441&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A0975077175JP5P92476&amp;url=%2FAuriculares-auriculares-impermeables-inal%25C3%25A1mbricos-reproducci%25C3%25B3n%2Fdp%2FB0997VKQ88%2Fref%3Dsr_1_9_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhtc%26qid%3D1634543618%26sr%3D8-9-spons%26psc%3D1&amp;qualifier=1634543618&amp;id=4783239451804136&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A01555212N89L1KZ18H2K&amp;url=%2Fauriculares-inal%25C3%25A1mbricos-cancelaci%25C3%25B3n-impermeable-incorporado%2Fdp%2FB09BN4ZSRV%2Fref%3Dsr_1_14_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhtc%26qid%3D1634543618%26sr%3D8-14-spons%26psc%3D1&amp;qualifier=1634543618&amp;id=4783239451804136&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg1_1?ie=UTF8&amp;adId=A09256851IGK6Y89EAZ4N&amp;url=%2Fr%25C3%25A1pida-trenzado-cargador-r%25C3%25A1pido-Samsung%2Fdp%2FB07WC7R6SF%2Fref%3Dsr_1_19_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhtc%26qid%3D1634543618%26sr%3D8-19-spons%26psc%3D1&amp;qualifier=1634543618&amp;id=4783239451804136&amp;widgetName=sp_btf</t>
-  </si>
-  <si>
-    <t>HQGC Direct</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A005651238N0IOIE7YIMJ&amp;url=%2FASUS-generaci%25C3%25B3n-Quad-Core-i3-1005G1-Fingerprint%2Fdp%2FB08Q4J26YZ%2Fref%3Dsr_1_1_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%26qid%3D1634543636%26sr%3D8-1-spons%26psc%3D1%26smid%3DAWC4R9IGPA4LI&amp;qualifier=1634543636&amp;id=2832862617145797&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A09338643L2YFC93GYX8A&amp;url=%2FASUS-Vivobook-15-6-Display-Laptop%2Fdp%2FB09BCVB3TG%2Fref%3Dsr_1_2_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%26qid%3D1634543636%26sr%3D8-2-spons%26psc%3D1&amp;qualifier=1634543636&amp;id=2832862617145797&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A0477380PR1FMXS0GREH&amp;url=%2FSpeclux-magn%25C3%25A9tico-direccionable-cabecera-Gigabyte%2Fdp%2FB092M781GY%2Fref%3Dsr_1_11_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%26qid%3D1634543636%26sr%3D8-11-spons%26psc%3D1&amp;qualifier=1634543636&amp;id=2832862617145797&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>Speclux US</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A004526033APR83CNQ5LM&amp;url=%2Fnigaozhiqi-impresa-consumidor-cubierta-tel%25C3%25A9fono%2Fdp%2FB095K61492%2Fref%3Dsr_1_9_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dzte%26qid%3D1634543654%26sr%3D8-9-spons%26psc%3D1&amp;qualifier=1634543654&amp;id=2424053508558300&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A1033588E43N146TH6VW&amp;url=%2Fmicrofibra-ZTE-Blade-A7-Prime%2Fdp%2FB096JJC2L9%2Fref%3Dsr_1_14_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dzte%26qid%3D1634543654%26sr%3D8-14-spons%26psc%3D1&amp;qualifier=1634543654&amp;id=2424053508558300&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg1_1?ie=UTF8&amp;adId=A0111670Q7VOHK1QIVAP&amp;url=%2FDesbloqueado-velocidad-descarga-dispositivos-cualquier%2Fdp%2FB08F2WW1H1%2Fref%3Dsr_1_19_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dzte%26qid%3D1634543654%26sr%3D8-19-spons%26psc%3D1%26smid%3DA1A8FDH3O7UIAW&amp;qualifier=1634543654&amp;id=2424053508558300&amp;widgetName=sp_btf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A05566131DN91KIW85TYM&amp;url=%2FAluratek-envejecida-incorporada-intercambiables-ADMPFD13F%2Fdp%2FB07X7KJ1SH%2Fref%3Dsr_1_11_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%26qid%3D1634543671%26sr%3D8-11-spons%26psc%3D1&amp;qualifier=1634543671&amp;id=5576399380821636&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>mariapaula@idico.com</t>
-  </si>
-  <si>
-    <t>De_Rui</t>
-  </si>
-  <si>
-    <t>minghuitong</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A041261737PSILKKXQYAI&amp;url=%2FLINKZONE-dispositivos-cualquier-T-Mobile-Latinoam%25C3%25A9rica%2Fdp%2FB08SJJH9BC%2Fref%3Dsr_1_1_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dalcatel%26qid%3D1634544834%26sr%3D8-1-spons%26psc%3D1%26smid%3DA2ENGOVL7A22UI&amp;qualifier=1634544834&amp;id=3154544726890482&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A03727523OXF3R26P5W8U&amp;url=%2FHuawei-Freebuds-Cancellation-Earbuds-MermaidTWS%2Fdp%2FB08PB82178%2Fref%3Dsr_1_1_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhuawei%26qid%3D1634544919%26sr%3D8-1-spons%26psc%3D1%26smid%3DA1L2MI56ZO8BAJ&amp;qualifier=1634544919&amp;id=5307728632630683&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A0975077175JP5P92476&amp;url=%2FAuriculares-auriculares-impermeables-inal%25C3%25A1mbricos-reproducci%25C3%25B3n%2Fdp%2FB0997VKQ88%2Fref%3Dsr_1_9_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhtc%26qid%3D1634544968%26sr%3D8-9-spons%26psc%3D1&amp;qualifier=1634544968&amp;id=3125492444055548&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A005651238N0IOIE7YIMJ&amp;url=%2FASUS-generaci%25C3%25B3n-Quad-Core-i3-1005G1-Fingerprint%2Fdp%2FB08Q4J26YZ%2Fref%3Dsr_1_1_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%26qid%3D1634544985%26sr%3D8-1-spons%26psc%3D1%26smid%3DAWC4R9IGPA4LI&amp;qualifier=1634544985&amp;id=861764353721846&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A0702559NNWAL58W1GY9&amp;url=%2FPantalla-compatible-pulgadas-pantalla-herramientas%2Fdp%2FB07TVH96B8%2Fref%3Dsr_1_9_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dzte%26qid%3D1634545002%26sr%3D8-9-spons%26psc%3D1&amp;qualifier=1634545002&amp;id=6595655318772311&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>www.amazon.com//-/es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A02597421R8KE3A4B07L&amp;url=%2F300W-ADL300SDC3A-para-Lenovo-20V%2Fdp%2FB09FXSZDW8%2Fref%3Dsr_1_1_sspa%3F__mk_es_US%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%26qid%3D1634545019%26sr%3D8-1-spons%26psc%3D1&amp;qualifier=1634545019&amp;id=4840352204699716&amp;widgetName=sp_atf</t>
   </si>
 </sst>
 </file>
@@ -468,9 +390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -490,211 +414,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
